--- a/Relatorios/ODONTOLOGIA_2023_1.xlsx
+++ b/Relatorios/ODONTOLOGIA_2023_1.xlsx
@@ -1151,14 +1151,14 @@
         <v>60</v>
       </c>
       <c r="N2" s="8" t="n">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="O2" s="8" t="n">
-        <v>264</v>
+        <v>58</v>
       </c>
       <c r="P2" s="8" t="inlineStr">
         <is>
-          <t>Ampla concorrência</t>
+          <t>Candidatos que, independentemente da renda (art. 14, II, Portaria Normativa nº 18/2012), tenham cursado integralmente o ensino médio em escolas públicas (Lei nº 12.711/2012).</t>
         </is>
       </c>
       <c r="Q2" s="8" t="n">
@@ -1177,7 +1177,7 @@
         <v>4</v>
       </c>
       <c r="V2" s="8" t="n">
-        <v>759.27</v>
+        <v>752.85</v>
       </c>
       <c r="W2" s="8" t="n">
         <v>768.8099999999999</v>
@@ -1247,14 +1247,14 @@
         <v>60</v>
       </c>
       <c r="N3" s="8" t="n">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="O3" s="8" t="n">
-        <v>58</v>
+        <v>264</v>
       </c>
       <c r="P3" s="8" t="inlineStr">
         <is>
-          <t>Candidatos que, independentemente da renda (art. 14, II, Portaria Normativa nº 18/2012), tenham cursado integralmente o ensino médio em escolas públicas (Lei nº 12.711/2012).</t>
+          <t>Ampla concorrência</t>
         </is>
       </c>
       <c r="Q3" s="8" t="n">
@@ -1273,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="V3" s="8" t="n">
-        <v>752.85</v>
+        <v>759.27</v>
       </c>
       <c r="W3" s="8" t="n">
         <v>768.8099999999999</v>

--- a/Relatorios/ODONTOLOGIA_2023_1.xlsx
+++ b/Relatorios/ODONTOLOGIA_2023_1.xlsx
@@ -73,9 +73,15 @@
       <bottom style="thin"/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
       <right style="thin">
         <color rgb="00000000"/>
       </right>
+      <top style="thin">
+        <color rgb="00000000"/>
+      </top>
       <bottom style="thin">
         <color rgb="00000000"/>
       </bottom>
@@ -89,11 +95,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>

--- a/Relatorios/ODONTOLOGIA_2023_1.xlsx
+++ b/Relatorios/ODONTOLOGIA_2023_1.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Dicionário de dados" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ODONTOLOGIA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ODONTOLOGIA" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -475,313 +474,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Nome da coluna</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Descrição da informação da coluna</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>CO_IES</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Código da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>NO_IES</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Nome da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>SG_IES</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Sigla da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>NO_CAMPUS</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nome do campus da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>NO_MUNICIPIO_CAMPUS</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nome do município do campus da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>SG_UF_CAMPUS</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Sigla da unidade da federação (UF) na qual está localizada o campus da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>DS_REGIAO</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Descrição da região na qual está localizada o campus da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>CO_IES_CURSO</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Código do curso da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>NO_CURSO</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Nome do curso da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>DS_GRAU</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Grau do curso da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>DS_TURNO</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Turno do curso da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>DS_PERIODICIDADE</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Periodicidade do curso da instituição de ensino superior confome informações do cadastro e-MEC</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>NU_VAGAS_AUTORIZADAS</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Número de vagas autorizadas para o curso da instituição de ensino superior confome informações do cadastro e-MEC (a referência é o cadastro do curso no e-MEC e não a oferta no Sisu)</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>DS_MOD_CONCORRENCIA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Descrição do tipo da modalidade de concorrência ofertada para o curso no processo seletivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>QT_INSCRICAO</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Quantidade de inscrições para a modalidade</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>REDACAO</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Peso atribuído para a prova de redação do Enem na oferta do curso no processo seletivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LINGUAGENS</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Peso atribuído para a prova de linguagens do Enem na oferta do curso no processo seletivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>MATEMATICA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Peso atribuído para a prova de matematica do Enem na oferta do curso no processo seletivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>CIENCIAS_HUMANAS</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>Peso atribuído para a prova de ciências humanas do Enem na oferta do curso no processo seletivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>CIENCIAS_NATUREZA</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Peso atribuído para a prova de ciências da natureza do Enem na oferta do curso no processo seletivo</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>NU_NOTACORTE</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>Nota de corte da modalidade/curso conforme o resultado da chamada regular. A nota de corte é sempre igual a nota do último candidato classificado na última vaga ofertada para a modalidade/curso escolhida. Na modalidade de bônus a nota de corte é a mesma da modalidade ampla concorrência do mesmo curso porque as pessoas que se inscreveram na modalidade bônus concorrem pelas vagas ofertadas para ampla concorrência do mesmo curso/grau/turno/campus/IES. Alguns cursos podem não apresentar nota de corte pois não tiveram número de inscritos pelo menos igual ao número de vagas ou porque tiveram poucos inscritos e alguns desses inscritos tiveram seleção na 1ª opção de curso e, portanto, não têm sua nota considerada para sua 2ª opção de inscrição</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>NOTAS</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>Médias ponderadas para cada curso</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>APROVAÇÃO</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Indica se as suas notas são maiores (escrito VERDADEIRO) ou menores (escrito FALSO) que a nota de corte</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:X95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -908,7 +600,7 @@
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>APROVAÇÃO</t>
+          <t>APROVAÇÃO (90.43%)</t>
         </is>
       </c>
     </row>
